--- a/Exp7/signal_table.xlsx
+++ b/Exp7/signal_table.xlsx
@@ -1481,6 +1481,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1510,21 +1525,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1829,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,39 +1854,39 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="116"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
       <c r="J1" s="100" t="s">
         <v>112</v>
       </c>
       <c r="K1" s="101"/>
       <c r="L1" s="101"/>
       <c r="M1" s="102"/>
-      <c r="N1" s="117" t="s">
+      <c r="N1" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="103" t="s">
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="117" t="s">
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="116"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="106"/>
       <c r="AA1" s="100" t="s">
         <v>115</v>
       </c>
@@ -1922,26 +1922,26 @@
       <c r="G2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="109"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="L2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="112" t="s">
+      <c r="M2" s="116"/>
+      <c r="N2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
       <c r="R2" s="22" t="s">
         <v>7</v>
       </c>
@@ -1951,20 +1951,20 @@
       <c r="T2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="110" t="s">
+      <c r="U2" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="111"/>
+      <c r="V2" s="116"/>
       <c r="W2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="X2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="106" t="s">
+      <c r="Y2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="107"/>
+      <c r="Z2" s="112"/>
       <c r="AA2" s="8" t="s">
         <v>14</v>
       </c>
@@ -4208,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="57">
         <v>0</v>
@@ -4223,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="85">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="57">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="57">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="59">
         <v>0</v>
@@ -4325,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="59">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="59">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="59">
         <v>0</v>
@@ -4412,16 +4412,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="52">
         <v>0</v>
       </c>
       <c r="L27" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="75">
         <v>0</v>
@@ -4922,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="57">
         <v>0</v>
@@ -4934,13 +4934,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="57">
         <v>0</v>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="59">
         <v>0</v>
@@ -5036,19 +5036,19 @@
         <v>0</v>
       </c>
       <c r="N33" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="59">
         <v>0</v>
       </c>
       <c r="R33" s="86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="59">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="52">
         <v>0</v>
@@ -7250,6 +7250,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:M1"/>
@@ -7257,11 +7262,6 @@
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="S1:V1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
